--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Bmp8a</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Bmp8a</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H2">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I2">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J2">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N2">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O2">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P2">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q2">
-        <v>5.467048036674666</v>
+        <v>2.801915966463334</v>
       </c>
       <c r="R2">
-        <v>49.203432330072</v>
+        <v>25.21724369817</v>
       </c>
       <c r="S2">
-        <v>0.09519307728818839</v>
+        <v>0.03904475379067626</v>
       </c>
       <c r="T2">
-        <v>0.101532406673174</v>
+        <v>0.04891003547061278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H3">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I3">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J3">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>88.626007</v>
       </c>
       <c r="O3">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P3">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q3">
-        <v>12.32598688555067</v>
+        <v>8.956376862740113</v>
       </c>
       <c r="R3">
-        <v>110.933881969956</v>
+        <v>80.607391764661</v>
       </c>
       <c r="S3">
-        <v>0.2146219704634442</v>
+        <v>0.1248072867451478</v>
       </c>
       <c r="T3">
-        <v>0.2289145997468055</v>
+        <v>0.1563418443978973</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H4">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I4">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J4">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N4">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O4">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P4">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q4">
-        <v>2.468304060734667</v>
+        <v>2.228280214595778</v>
       </c>
       <c r="R4">
-        <v>22.214736546612</v>
+        <v>20.054521931362</v>
       </c>
       <c r="S4">
-        <v>0.04297848814351778</v>
+        <v>0.0310511283696152</v>
       </c>
       <c r="T4">
-        <v>0.04584061636304815</v>
+        <v>0.03889669270556632</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H5">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I5">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J5">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N5">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O5">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P5">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q5">
-        <v>3.400957185142</v>
+        <v>3.671592309071833</v>
       </c>
       <c r="R5">
-        <v>20.405743110852</v>
+        <v>22.029553854431</v>
       </c>
       <c r="S5">
-        <v>0.05921798711246766</v>
+        <v>0.05116371063347744</v>
       </c>
       <c r="T5">
-        <v>0.04210771708162077</v>
+        <v>0.0427273604252072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H6">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I6">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J6">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N6">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O6">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P6">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q6">
-        <v>3.179676976553333</v>
+        <v>1.416260808764778</v>
       </c>
       <c r="R6">
-        <v>28.61709278898</v>
+        <v>12.746347278883</v>
       </c>
       <c r="S6">
-        <v>0.05536502224784214</v>
+        <v>0.01973562206842452</v>
       </c>
       <c r="T6">
-        <v>0.05905202473199944</v>
+        <v>0.0247221427128516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.710799</v>
       </c>
       <c r="I7">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J7">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N7">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O7">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P7">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q7">
-        <v>3.104535784240666</v>
+        <v>2.18971820069</v>
       </c>
       <c r="R7">
-        <v>27.940822058166</v>
+        <v>19.70746380621</v>
       </c>
       <c r="S7">
-        <v>0.05405665230498408</v>
+        <v>0.03051376595166795</v>
       </c>
       <c r="T7">
-        <v>0.05765652462945463</v>
+        <v>0.03822355707604545</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.710799</v>
       </c>
       <c r="I8">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J8">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>88.626007</v>
       </c>
       <c r="O8">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P8">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q8">
         <v>6.999475238843666</v>
@@ -948,10 +948,10 @@
         <v>62.99527714959299</v>
       </c>
       <c r="S8">
-        <v>0.1218759343101152</v>
+        <v>0.09753782434436982</v>
       </c>
       <c r="T8">
-        <v>0.1299921935350973</v>
+        <v>0.1221823160669724</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>0.710799</v>
       </c>
       <c r="I9">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J9">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N9">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O9">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P9">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q9">
-        <v>1.401659219295667</v>
+        <v>1.741417587300667</v>
       </c>
       <c r="R9">
-        <v>12.614932973661</v>
+        <v>15.672758285706</v>
       </c>
       <c r="S9">
-        <v>0.02440590488670225</v>
+        <v>0.02426668813652223</v>
       </c>
       <c r="T9">
-        <v>0.02603120238125686</v>
+        <v>0.03039805511067211</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>0.710799</v>
       </c>
       <c r="I10">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J10">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N10">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O10">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P10">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q10">
-        <v>1.9312786738135</v>
+        <v>2.8693767411005</v>
       </c>
       <c r="R10">
-        <v>11.587672042881</v>
+        <v>17.216260446603</v>
       </c>
       <c r="S10">
-        <v>0.03362771990077151</v>
+        <v>0.03998482100459815</v>
       </c>
       <c r="T10">
-        <v>0.02391142598265646</v>
+        <v>0.03339175047016606</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>0.710799</v>
       </c>
       <c r="I11">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J11">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N11">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O11">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P11">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q11">
-        <v>1.805621770618333</v>
+        <v>1.106818372497667</v>
       </c>
       <c r="R11">
-        <v>16.250595935565</v>
+        <v>9.961365352479</v>
       </c>
       <c r="S11">
-        <v>0.03143976266728658</v>
+        <v>0.01542353566717288</v>
       </c>
       <c r="T11">
-        <v>0.03353347596043204</v>
+        <v>0.0193205386979243</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H12">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I12">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J12">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N12">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O12">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P12">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q12">
-        <v>1.564075889166889</v>
+        <v>0.9019261099866666</v>
       </c>
       <c r="R12">
-        <v>14.076683002502</v>
+        <v>8.11733498988</v>
       </c>
       <c r="S12">
-        <v>0.02723392880458711</v>
+        <v>0.01256835798193544</v>
       </c>
       <c r="T12">
-        <v>0.0290475569596772</v>
+        <v>0.01574395469361659</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H13">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I13">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J13">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>88.626007</v>
       </c>
       <c r="O13">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P13">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q13">
-        <v>3.526359887191222</v>
+        <v>2.883023702378222</v>
       </c>
       <c r="R13">
-        <v>31.737238984721</v>
+        <v>25.947213321404</v>
       </c>
       <c r="S13">
-        <v>0.0614015181566873</v>
+        <v>0.0401749916769014</v>
       </c>
       <c r="T13">
-        <v>0.0654905176871365</v>
+        <v>0.05032584604024436</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H14">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I14">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J14">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N14">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O14">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P14">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q14">
-        <v>0.7061607731685555</v>
+        <v>0.7172749397075555</v>
       </c>
       <c r="R14">
-        <v>6.355446958516999</v>
+        <v>6.455474457367999</v>
       </c>
       <c r="S14">
-        <v>0.01229577947864689</v>
+        <v>0.009995240312811198</v>
       </c>
       <c r="T14">
-        <v>0.01311460999007486</v>
+        <v>0.01252069768086575</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H15">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I15">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J15">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N15">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O15">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P15">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q15">
-        <v>0.9729848901428332</v>
+        <v>1.181871622280666</v>
       </c>
       <c r="R15">
-        <v>5.837909340856999</v>
+        <v>7.091229733683998</v>
       </c>
       <c r="S15">
-        <v>0.01694176184776002</v>
+        <v>0.01646940417074055</v>
       </c>
       <c r="T15">
-        <v>0.01204665929280602</v>
+        <v>0.01375377507375708</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H16">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I16">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J16">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N16">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O16">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P16">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q16">
-        <v>0.9096785067561108</v>
+        <v>0.4558889764235556</v>
       </c>
       <c r="R16">
-        <v>8.187106560804999</v>
+        <v>4.103000787812</v>
       </c>
       <c r="S16">
-        <v>0.01583946140954521</v>
+        <v>0.006352821802435764</v>
       </c>
       <c r="T16">
-        <v>0.01689428142394488</v>
+        <v>0.007957963862735727</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H17">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I17">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J17">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N17">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O17">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P17">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q17">
-        <v>0.7401956617256666</v>
+        <v>4.647785080859999</v>
       </c>
       <c r="R17">
-        <v>4.441173970354</v>
+        <v>27.88671048516</v>
       </c>
       <c r="S17">
-        <v>0.01288840016812644</v>
+        <v>0.06476697600007476</v>
       </c>
       <c r="T17">
-        <v>0.009164463947136131</v>
+        <v>0.05408759241545757</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H18">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I18">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J18">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>88.626007</v>
       </c>
       <c r="O18">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P18">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q18">
-        <v>1.668842482811167</v>
+        <v>14.856732057438</v>
       </c>
       <c r="R18">
-        <v>10.013054896867</v>
+        <v>89.140392344628</v>
       </c>
       <c r="S18">
-        <v>0.02905814077036784</v>
+        <v>0.207028851778487</v>
       </c>
       <c r="T18">
-        <v>0.02066216752948278</v>
+        <v>0.1728920021404436</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H19">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I19">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J19">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N19">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O19">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P19">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q19">
-        <v>0.3341891172931667</v>
+        <v>3.696244877196</v>
       </c>
       <c r="R19">
-        <v>2.005134703759</v>
+        <v>22.177469263176</v>
       </c>
       <c r="S19">
-        <v>0.005818952066627499</v>
+        <v>0.05150724465242622</v>
       </c>
       <c r="T19">
-        <v>0.004137641268821116</v>
+        <v>0.04301424934831711</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H20">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I20">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J20">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N20">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O20">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P20">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q20">
-        <v>0.46046307573475</v>
+        <v>6.090393916646999</v>
       </c>
       <c r="R20">
-        <v>1.841852302939</v>
+        <v>24.361575666588</v>
       </c>
       <c r="S20">
-        <v>0.008017653560519356</v>
+        <v>0.08486975834035114</v>
       </c>
       <c r="T20">
-        <v>0.003800704304517184</v>
+        <v>0.04725042689972117</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H21">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I21">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J21">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N21">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O21">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P21">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q21">
-        <v>0.4305034614558333</v>
+        <v>2.349276686514</v>
       </c>
       <c r="R21">
-        <v>2.583020768735</v>
+        <v>14.095660119084</v>
       </c>
       <c r="S21">
-        <v>0.007495992170598237</v>
+        <v>0.03273721657216418</v>
       </c>
       <c r="T21">
-        <v>0.005330122365796199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.062692</v>
-      </c>
-      <c r="H22">
-        <v>0.188076</v>
-      </c>
-      <c r="I22">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J22">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>13.10301133333333</v>
-      </c>
-      <c r="N22">
-        <v>39.309034</v>
-      </c>
-      <c r="O22">
-        <v>0.2036753411238415</v>
-      </c>
-      <c r="P22">
-        <v>0.2126567538160977</v>
-      </c>
-      <c r="Q22">
-        <v>0.8214539865093333</v>
-      </c>
-      <c r="R22">
-        <v>7.393085878583999</v>
-      </c>
-      <c r="S22">
-        <v>0.01430328255795546</v>
-      </c>
-      <c r="T22">
-        <v>0.01525580160665576</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.062692</v>
-      </c>
-      <c r="H23">
-        <v>0.188076</v>
-      </c>
-      <c r="I23">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J23">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>29.54200233333333</v>
-      </c>
-      <c r="N23">
-        <v>88.626007</v>
-      </c>
-      <c r="O23">
-        <v>0.4592056932299319</v>
-      </c>
-      <c r="P23">
-        <v>0.479455154057023</v>
-      </c>
-      <c r="Q23">
-        <v>1.852047210281333</v>
-      </c>
-      <c r="R23">
-        <v>16.668424892532</v>
-      </c>
-      <c r="S23">
-        <v>0.03224812952931733</v>
-      </c>
-      <c r="T23">
-        <v>0.03439567555850101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.062692</v>
-      </c>
-      <c r="H24">
-        <v>0.188076</v>
-      </c>
-      <c r="I24">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J24">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>5.915846333333334</v>
-      </c>
-      <c r="N24">
-        <v>17.747539</v>
-      </c>
-      <c r="O24">
-        <v>0.09195687840951981</v>
-      </c>
-      <c r="P24">
-        <v>0.09601187431786275</v>
-      </c>
-      <c r="Q24">
-        <v>0.3708762383293333</v>
-      </c>
-      <c r="R24">
-        <v>3.337886144964</v>
-      </c>
-      <c r="S24">
-        <v>0.006457753834025388</v>
-      </c>
-      <c r="T24">
-        <v>0.00688780431466176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.062692</v>
-      </c>
-      <c r="H25">
-        <v>0.188076</v>
-      </c>
-      <c r="I25">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J25">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>8.1511595</v>
-      </c>
-      <c r="N25">
-        <v>16.302319</v>
-      </c>
-      <c r="O25">
-        <v>0.1267029501450487</v>
-      </c>
-      <c r="P25">
-        <v>0.08819342236226138</v>
-      </c>
-      <c r="Q25">
-        <v>0.511012491374</v>
-      </c>
-      <c r="R25">
-        <v>3.066074948244</v>
-      </c>
-      <c r="S25">
-        <v>0.008897827723530141</v>
-      </c>
-      <c r="T25">
-        <v>0.006326915700660942</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.062692</v>
-      </c>
-      <c r="H26">
-        <v>0.188076</v>
-      </c>
-      <c r="I26">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J26">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>7.620811666666666</v>
-      </c>
-      <c r="N26">
-        <v>22.862435</v>
-      </c>
-      <c r="O26">
-        <v>0.1184591370916582</v>
-      </c>
-      <c r="P26">
-        <v>0.123682795446755</v>
-      </c>
-      <c r="Q26">
-        <v>0.4777639250066666</v>
-      </c>
-      <c r="R26">
-        <v>4.299875325059999</v>
-      </c>
-      <c r="S26">
-        <v>0.008318898596386024</v>
-      </c>
-      <c r="T26">
-        <v>0.008872890964582415</v>
+        <v>0.02733919871092538</v>
       </c>
     </row>
   </sheetData>
